--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsjo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC10434-0525-489F-BC2E-F35F9C0D425D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E1B7D7-BAF3-4BCB-AF79-CAAFEF110244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="300" windowWidth="15075" windowHeight="14685" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
+    <workbookView xWindow="-26355" yWindow="1530" windowWidth="21435" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$K$131</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="167">
   <si>
     <t>will</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,12 +557,370 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>종속접속사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What he said surprised everyone.
+□      ○_____________□</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태깅 오류 예문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옳은 태깅 예문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That she passed the exam was surprising.
+◇                        ○___(
+◇        ○__________□</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csubj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sconj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">who(m), which, what, that </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when, where, why, how, that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whose, which, what</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pronoun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adverb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compoundrelative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interrogative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* what, how는 감탄문에서 사용</t>
+  </si>
+  <si>
+    <t>* that, when, where, whenever, wherever는 접속사로도 쓰임</t>
+  </si>
+  <si>
+    <t>☞ (엄밀한) 문법적으로 who, which, what(일부 방언 제외), why, how 은 접속사로 쓰이지 않으며, that, when, where는 접속사로 쓰인다.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and, because, if, lest, nor, or, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, though/although, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>whenever</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>wherever</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>, whereas, whether, while,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">either, once, only, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>when</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>, yet</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">after, as, before, but, except/excepting, for, like, since, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>than, till/until, unless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about, above, across, against, along, amid/amidst,
+among/amongst, astride, at, barring, behind, beside, between,
+beyond, by, circa, despite, during, from, in/inside/into, 
+minus/plus, notwithstanding, of, on/upon/onto, over, per,
+through/throughout, to/toward(s), under/underneath,
+versus, via, with/without, opposite, past, unlike, outside,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aboard, alongside, around, athwart, below, beneath, besides,
+down, near, off, out, round, up, within</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속사
+(30여개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속사/
+전치사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전치사
+(50여개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>was</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That, she, exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is important that you study hard.
+   ○__(         ◇
+                ◇        ○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I will call you when I arrive.
+  .....○____□   &lt;           &gt;
+                       ○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sconj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advmod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advcl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when, I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I know that she is coming.
+  ○    ◇
+       ◇        ...○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>know</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that', 'she', 'is'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,8 +1045,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,13 +1109,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -739,7 +1171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,6 +1230,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1136,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974492D6-350D-4A8E-8EA6-5776C8BB06E0}">
   <dimension ref="A5:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="5" topLeftCell="H114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -4418,4 +4880,316 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAF8752-34D8-434C-91D0-A1F495AC0862}">
+  <dimension ref="C5:M42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="3" width="9" style="21"/>
+    <col min="4" max="4" width="11.25" style="21" customWidth="1"/>
+    <col min="5" max="9" width="9" style="21"/>
+    <col min="10" max="10" width="22.75" style="21" customWidth="1"/>
+    <col min="11" max="11" width="9" style="21"/>
+    <col min="12" max="12" width="53.5" style="21" customWidth="1"/>
+    <col min="13" max="13" width="51.5" style="21" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:13">
+      <c r="D5" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" ht="54" customHeight="1">
+      <c r="E6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" ht="40.5">
+      <c r="E7" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" ht="40.5">
+      <c r="E10" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13">
+      <c r="E11" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" ht="40.5">
+      <c r="E14" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13">
+      <c r="E15" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10">
+      <c r="E33" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10">
+      <c r="E34" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10">
+      <c r="E35" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" ht="44.25" customHeight="1">
+      <c r="D37" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+    </row>
+    <row r="38" spans="4:10" ht="21" customHeight="1">
+      <c r="D38" s="25"/>
+      <c r="E38" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="4:10" ht="19.5" customHeight="1">
+      <c r="D39" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="4:10" ht="19.5" customHeight="1">
+      <c r="D40" s="25"/>
+      <c r="E40" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+    </row>
+    <row r="41" spans="4:10" ht="147" customHeight="1">
+      <c r="D41" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+    </row>
+    <row r="42" spans="4:10" ht="58.5" customHeight="1">
+      <c r="D42" s="25"/>
+      <c r="E42" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E1B7D7-BAF3-4BCB-AF79-CAAFEF110244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78C9896-BB70-451C-9A6E-83BC45591DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26355" yWindow="1530" windowWidth="21435" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
+    <workbookView xWindow="-26670" yWindow="1950" windowWidth="23640" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="203">
   <si>
     <t>will</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,12 +580,6 @@
   </si>
   <si>
     <t>옳은 태깅 예문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>That she passed the exam was surprising.
-◇                        ○___(
-◇        ○__________□</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -822,15 +816,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I will call you when I arrive.
+  .....○____□   &lt;           &gt;
+                       ○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sconj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advmod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advcl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when, I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I know that she is coming.
+  ○    ◇
+       ◇        ...○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>know</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that', 'she', 'is'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sconj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종속접속사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부사절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark, admod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN, WRB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csubj, nsubj, nsubjpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advcl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That she passed the exam was surprising.
+[                      ] ○___(
+◇        ○__________□</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -840,51 +976,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I will call you when I arrive.
-  .....○____□   &lt;           &gt;
-                       ○</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>when</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sconj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>advmod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>advcl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>call</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>when, I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I know that she is coming.
-  ○    ◇
-       ◇        ...○</t>
+    <t>보어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위절동사(일반동사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종속절동사(일반동사, be동사 상관없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위절동사(be동사 : is, )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The problem is that she is late.
+            ○  ◇
+               ◇        ○__(</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -892,27 +1018,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VBG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>know</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>that', 'she', 'is'</t>
+    <t>that', 'she', 'late'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ SVOC에서 C 부분에 종속접속사를 사용한 명사절 보어 문장은 : 극히 드물다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접목적어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I told him that he was wrong.
+  ○____□   ◇
+           ◇       ○___(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>was</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>told</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'that', 'he', 'wrong'</t>
+  </si>
+  <si>
+    <t>상위절동사(dative verbs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give의 간접목적어에 dep(dative, iobj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ SVOO에서 간목 부분에 종속접속사를 사용한 명사절 보어 문장은 : 없다고 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부사수식어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,7 +1067,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,6 +1218,14 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1171,7 +1326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1247,6 +1402,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1258,9 +1419,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4884,310 +5042,564 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAF8752-34D8-434C-91D0-A1F495AC0862}">
-  <dimension ref="C5:M42"/>
+  <dimension ref="B2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="9" style="21"/>
+    <col min="1" max="1" width="9" style="21"/>
+    <col min="2" max="2" width="14.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9" style="21"/>
     <col min="4" max="4" width="11.25" style="21" customWidth="1"/>
     <col min="5" max="9" width="9" style="21"/>
     <col min="10" max="10" width="22.75" style="21" customWidth="1"/>
     <col min="11" max="11" width="9" style="21"/>
-    <col min="12" max="12" width="53.5" style="21" customWidth="1"/>
+    <col min="12" max="12" width="49.5" style="21" customWidth="1"/>
     <col min="13" max="13" width="51.5" style="21" customWidth="1"/>
     <col min="14" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:13">
+    <row r="2" spans="2:12">
+      <c r="F2" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="E4" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="C5" s="21" t="s">
+        <v>169</v>
+      </c>
       <c r="D5" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="E6" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="C7" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="E8" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="L9" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="C11" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="E12" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="C13" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="E14" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="C16" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="C17" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E20" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="54" customHeight="1">
+      <c r="E21" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="40.5">
+      <c r="E22" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="40.5">
+      <c r="C24" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="E25" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="G26" s="26"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="2:13" ht="40.5">
+      <c r="C27" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="L27" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="E28" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="40.5">
+      <c r="C31" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="E32" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" ht="40.5">
+      <c r="C36" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="4:13" ht="54" customHeight="1">
-      <c r="E6" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="F36" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="E37" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="C48" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="4:13" ht="40.5">
-      <c r="E7" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="4:13" ht="40.5">
-      <c r="E10" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="4:13">
-      <c r="E11" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="4:13" ht="40.5">
-      <c r="E14" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="4:13">
-      <c r="E15" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="22" t="s">
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D49" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E49" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="22" t="s">
+    <row r="50" spans="3:10">
+      <c r="C50" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D50" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E50" s="24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="22" t="s">
+    <row r="52" spans="3:10">
+      <c r="E52" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10">
-      <c r="E33" s="21" t="s">
+    </row>
+    <row r="53" spans="3:10">
+      <c r="E53" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="4:10">
-      <c r="E34" s="21" t="s">
+    <row r="54" spans="3:10">
+      <c r="E54" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="4:10">
-      <c r="E35" s="21" t="s">
+    <row r="56" spans="3:10" ht="44.25" customHeight="1">
+      <c r="D56" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="28" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="37" spans="4:10" ht="44.25" customHeight="1">
-      <c r="D37" s="25" t="s">
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+    </row>
+    <row r="57" spans="3:10" ht="21" customHeight="1">
+      <c r="D57" s="27"/>
+      <c r="E57" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+    </row>
+    <row r="58" spans="3:10" ht="19.5" customHeight="1">
+      <c r="D58" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="38" spans="4:10" ht="21" customHeight="1">
-      <c r="D38" s="25"/>
-      <c r="E38" s="27" t="s">
+      <c r="E58" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-    </row>
-    <row r="39" spans="4:10" ht="19.5" customHeight="1">
-      <c r="D39" s="25" t="s">
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+    </row>
+    <row r="59" spans="3:10" ht="19.5" customHeight="1">
+      <c r="D59" s="27"/>
+      <c r="E59" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="3:10" ht="147" customHeight="1">
+      <c r="D60" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-    </row>
-    <row r="40" spans="4:10" ht="19.5" customHeight="1">
-      <c r="D40" s="25"/>
-      <c r="E40" s="27" t="s">
+      <c r="E60" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-    </row>
-    <row r="41" spans="4:10" ht="147" customHeight="1">
-      <c r="D41" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="26" t="s">
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+    </row>
+    <row r="61" spans="3:10" ht="58.5" customHeight="1">
+      <c r="D61" s="27"/>
+      <c r="E61" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="42" spans="4:10" ht="58.5" customHeight="1">
-      <c r="D42" s="25"/>
-      <c r="E42" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78C9896-BB70-451C-9A6E-83BC45591DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36503C26-04C2-4BBD-80C3-9D45B997278F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26670" yWindow="1950" windowWidth="23640" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
+    <workbookView xWindow="-26790" yWindow="1935" windowWidth="25290" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5045,7 +5045,7 @@
   <dimension ref="B2:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="E21" sqref="E21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36503C26-04C2-4BBD-80C3-9D45B997278F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661E2396-1977-405A-A365-0E0D3D06EB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26790" yWindow="1935" windowWidth="25290" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
+    <workbookView xWindow="-24195" yWindow="2040" windowWidth="23595" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5044,8 +5044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAF8752-34D8-434C-91D0-A1F495AC0862}">
   <dimension ref="B2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661E2396-1977-405A-A365-0E0D3D06EB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032BA97C-D2AB-4D5A-A39D-9A2ECB0E9602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24195" yWindow="2040" windowWidth="23595" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
   </bookViews>
@@ -5044,8 +5044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAF8752-34D8-434C-91D0-A1F495AC0862}">
   <dimension ref="B2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032BA97C-D2AB-4D5A-A39D-9A2ECB0E9602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E88E042-8921-4630-A00B-A5C652122219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24195" yWindow="2040" windowWidth="23595" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
+    <workbookView xWindow="-23145" yWindow="2010" windowWidth="22755" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="236">
   <si>
     <t>will</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1062,12 +1062,342 @@
     <t>부사수식어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I want to eat something.
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    □              ]
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>___□</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to 부정사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xcomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to, someghing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I enjoy reading books.
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">_______
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">       □    </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>being</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxpsss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I regret having told her the secret.
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>____□_______□</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>having</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>told</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>progressive, participle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">childrun 의미없음
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>progressive, participle</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He enjoys being praised.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>praised</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerbForm : Ger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,6 +1556,28 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1326,7 +1678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1419,6 +1771,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5042,10 +5397,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAF8752-34D8-434C-91D0-A1F495AC0862}">
-  <dimension ref="B2:M61"/>
+  <dimension ref="B2:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5062,544 +5420,727 @@
     <col min="14" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
+      <c r="B2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>145</v>
+      </c>
       <c r="F2" s="21" t="s">
-        <v>163</v>
+        <v>116</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>167</v>
+        <v>143</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>177</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="54" customHeight="1">
       <c r="E3" s="21" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="F3" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="40.5">
+      <c r="E4" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="40.5">
+      <c r="D6" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="E7" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="G8" s="26"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="2:13" ht="40.5">
+      <c r="D9" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="G9" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="H9" s="21" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="E4" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="C5" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="E6" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="21" t="s">
+      <c r="J9" s="25"/>
+      <c r="L9" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="E10" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="L6" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="C7" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="E8" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="L9" s="21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="C11" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="I10" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="40.5">
+      <c r="D13" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="E12" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="C13" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>178</v>
-      </c>
       <c r="E13" s="21" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>164</v>
       </c>
+      <c r="G13" s="21" t="s">
+        <v>166</v>
+      </c>
       <c r="H13" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="E14" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="40.5">
+      <c r="D18" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="E19" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="46.5">
+      <c r="B21" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="E22" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="46.5">
+      <c r="E24" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="E25" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="46.5">
+      <c r="E27" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="E28" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="30" spans="2:12" ht="46.5">
+      <c r="E30" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="E31" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="L36" s="20"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="F38" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="E40" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="C41" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="E42" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="C43" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="E44" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="L45" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="C47" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="E48" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L48" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11">
+      <c r="C49" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K49" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="E14" s="21" t="s">
+    <row r="50" spans="3:11">
+      <c r="E50" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H50" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
-      <c r="C16" s="21" t="s">
+    <row r="52" spans="3:11">
+      <c r="C52" s="21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
-      <c r="C17" s="21" t="s">
+    <row r="53" spans="3:11">
+      <c r="C53" s="21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="54" customHeight="1">
-      <c r="E21" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="40.5">
-      <c r="E22" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="40.5">
-      <c r="C24" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="E25" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="G26" s="26"/>
-      <c r="J26" s="25"/>
-    </row>
-    <row r="27" spans="2:13" ht="40.5">
-      <c r="C27" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="J27" s="25"/>
-      <c r="L27" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="E28" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="40.5">
-      <c r="C31" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="E32" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" ht="40.5">
-      <c r="C36" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12">
-      <c r="E37" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="3:12">
-      <c r="C48" s="22" t="s">
+    <row r="61" spans="3:11">
+      <c r="C61" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D61" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E61" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="3:10">
-      <c r="C49" s="22" t="s">
+    <row r="62" spans="3:11">
+      <c r="C62" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D62" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E62" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="3:10">
-      <c r="C50" s="22" t="s">
+    <row r="63" spans="3:11">
+      <c r="C63" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D63" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E63" s="24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="3:10">
-      <c r="E52" s="21" t="s">
+    <row r="65" spans="4:10">
+      <c r="E65" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="3:10">
-      <c r="E53" s="21" t="s">
+    <row r="66" spans="4:10">
+      <c r="E66" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="3:10">
-      <c r="E54" s="21" t="s">
+    <row r="67" spans="4:10">
+      <c r="E67" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="3:10" ht="44.25" customHeight="1">
-      <c r="D56" s="27" t="s">
+    <row r="69" spans="4:10" ht="44.25" customHeight="1">
+      <c r="D69" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E69" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-    </row>
-    <row r="57" spans="3:10" ht="21" customHeight="1">
-      <c r="D57" s="27"/>
-      <c r="E57" s="29" t="s">
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+    </row>
+    <row r="70" spans="4:10" ht="21" customHeight="1">
+      <c r="D70" s="27"/>
+      <c r="E70" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-    </row>
-    <row r="58" spans="3:10" ht="19.5" customHeight="1">
-      <c r="D58" s="27" t="s">
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+    </row>
+    <row r="71" spans="4:10" ht="19.5" customHeight="1">
+      <c r="D71" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E71" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-    </row>
-    <row r="59" spans="3:10" ht="19.5" customHeight="1">
-      <c r="D59" s="27"/>
-      <c r="E59" s="29" t="s">
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+    </row>
+    <row r="72" spans="4:10" ht="19.5" customHeight="1">
+      <c r="D72" s="27"/>
+      <c r="E72" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="3:10" ht="147" customHeight="1">
-      <c r="D60" s="27" t="s">
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+    </row>
+    <row r="73" spans="4:10" ht="147" customHeight="1">
+      <c r="D73" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E73" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-    </row>
-    <row r="61" spans="3:10" ht="58.5" customHeight="1">
-      <c r="D61" s="27"/>
-      <c r="E61" s="29" t="s">
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+    </row>
+    <row r="74" spans="4:10" ht="58.5" customHeight="1">
+      <c r="D74" s="27"/>
+      <c r="E74" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="E74:J74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E88E042-8921-4630-A00B-A5C652122219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801315FB-73D8-4827-9A10-14AE53C63750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23145" yWindow="2010" windowWidth="22755" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
+    <workbookView xWindow="-26970" yWindow="2685" windowWidth="23640" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="280">
   <si>
     <t>will</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,10 +555,6 @@
       </rPr>
       <t>fin</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종속접속사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1063,52 +1059,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I want to eat something.
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">    □              ]
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>___□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>to 부정사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1117,10 +1067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>목적어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>to</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1133,27 +1079,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>verb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xcomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>want</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to, someghing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1392,12 +1322,384 @@
     <t>regret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>주어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종속접속사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계층시작요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절/구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She hopes to travel the world.
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_____□                 ]
+          to.R__________□</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to', 'world'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xcomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hopes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to 부정사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">His dream is to become a doctor.
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>__[                ]
+             to.R________[</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>become</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to', 'doctor'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She taught me to swim.
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>______□__□     ]
+              to.R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taught</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I want you to succeed.
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적보어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsubj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어보어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접목적어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>', 'to'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   |           i
+He wants to be traveling now.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_____□                 ]
+         to....R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적어
+(완진수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to', 'be', 'now'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We expect her to arrive soon.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>__________□            ]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>her', 'to', 'soon'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1578,6 +1880,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1678,7 +1988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1760,6 +2070,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1772,7 +2085,7 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5397,13 +5710,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAF8752-34D8-434C-91D0-A1F495AC0862}">
-  <dimension ref="B2:M74"/>
+  <dimension ref="B2:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5422,109 +5735,124 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="H2" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="54" customHeight="1">
+      <c r="B3" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H3" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="54" customHeight="1">
-      <c r="E3" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="L3" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="40.5">
       <c r="E4" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>115</v>
-      </c>
       <c r="I4" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="40.5">
+      <c r="B6" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>234</v>
+      </c>
       <c r="D6" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>158</v>
-      </c>
       <c r="H6" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="E7" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="I7" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="J7" s="25" t="s">
         <v>161</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -5532,615 +5860,917 @@
       <c r="J8" s="25"/>
     </row>
     <row r="9" spans="2:13" ht="40.5">
+      <c r="B9" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>234</v>
+      </c>
       <c r="D9" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J9" s="25"/>
       <c r="L9" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="2:13">
       <c r="E10" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="J10" s="25" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="13" spans="2:13" ht="40.5">
+      <c r="B13" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>234</v>
+      </c>
       <c r="D13" s="21" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="2:13">
       <c r="E14" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>185</v>
-      </c>
       <c r="I14" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="40.5">
+      <c r="B18" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>234</v>
+      </c>
       <c r="D18" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="G18" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="H18" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>150</v>
-      </c>
       <c r="L18" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="E19" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="26" t="s">
+      <c r="H19" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="I19" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="J19" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="46.5">
+    </row>
+    <row r="21" spans="2:12" ht="43.5">
       <c r="B21" s="21" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>207</v>
+        <v>242</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>243</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="E22" s="21" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>212</v>
+        <v>246</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="46.5">
+        <v>248</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="57">
+      <c r="B23" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="E24" s="21" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
+        <v>274</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="43.5">
+      <c r="B25" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>267</v>
+      </c>
       <c r="E25" s="21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>220</v>
+        <v>240</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>241</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="46.5">
+        <v>255</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="E26" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="43.5">
+      <c r="B27" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>266</v>
+      </c>
       <c r="E27" s="21" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="E28" s="21" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>212</v>
+        <v>246</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="L28" s="20"/>
-    </row>
-    <row r="30" spans="2:12" ht="46.5">
+        <v>252</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="46.5">
+      <c r="B29" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="L29" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
       <c r="E30" s="21" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>209</v>
+        <v>246</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>260</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>224</v>
+        <v>261</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="E31" s="21" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="F31" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="30">
+      <c r="E32" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="E33" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="46.5">
+      <c r="B38" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="I38" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="H31" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="L31" s="20"/>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="L32" s="20"/>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="L33" s="20"/>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="L36" s="20"/>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="F38" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="L38" s="21" t="s">
-        <v>183</v>
+      <c r="J38" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>177</v>
-      </c>
       <c r="E39" s="21" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>164</v>
+        <v>207</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>213</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="E40" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12">
+        <v>214</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="46.5">
+      <c r="B41" s="21" t="s">
+        <v>230</v>
+      </c>
       <c r="C41" s="21" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>164</v>
+        <v>206</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="L41" s="21" t="s">
-        <v>188</v>
+        <v>211</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="E42" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="44" spans="2:12" ht="46.5">
+      <c r="B44" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="E45" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="L50" s="20"/>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="F52" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="E54" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H54" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="H42" s="21" t="s">
+    </row>
+    <row r="55" spans="2:12">
+      <c r="C55" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="L42" s="21" t="s">
+      <c r="E55" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L55" s="21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="2:12">
-      <c r="C43" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K43" s="21" t="s">
+    <row r="56" spans="2:12">
+      <c r="E56" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L56" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="C57" s="21" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="E44" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="L44" s="21" t="s">
+      <c r="D57" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="E58" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L58" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="L59" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="2:12">
-      <c r="L45" s="21" t="s">
+    <row r="61" spans="2:12">
+      <c r="C61" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L61" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="E62" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L62" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="C63" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="E64" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67" s="21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:12">
-      <c r="C47" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="L47" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12">
-      <c r="E48" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="L48" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11">
-      <c r="C49" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="K49" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11">
-      <c r="E50" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="3:11">
-      <c r="C52" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11">
-      <c r="C53" s="21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11">
-      <c r="C61" s="22" t="s">
+    <row r="75" spans="3:5">
+      <c r="C75" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="C76" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D76" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E76" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="3:11">
-      <c r="C62" s="22" t="s">
+    <row r="77" spans="3:5">
+      <c r="C77" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D77" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E77" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="3:11">
-      <c r="C63" s="22" t="s">
+    <row r="79" spans="3:5">
+      <c r="E79" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="4:10">
-      <c r="E65" s="21" t="s">
+    </row>
+    <row r="80" spans="3:5">
+      <c r="E80" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="4:10">
-      <c r="E66" s="21" t="s">
+    <row r="81" spans="4:10">
+      <c r="E81" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="4:10">
-      <c r="E67" s="21" t="s">
+    <row r="83" spans="4:10" ht="44.25" customHeight="1">
+      <c r="D83" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="29" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="69" spans="4:10" ht="44.25" customHeight="1">
-      <c r="D69" s="27" t="s">
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+    </row>
+    <row r="84" spans="4:10" ht="21" customHeight="1">
+      <c r="D84" s="28"/>
+      <c r="E84" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+    </row>
+    <row r="85" spans="4:10" ht="19.5" customHeight="1">
+      <c r="D85" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E69" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-    </row>
-    <row r="70" spans="4:10" ht="21" customHeight="1">
-      <c r="D70" s="27"/>
-      <c r="E70" s="29" t="s">
+      <c r="E85" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-    </row>
-    <row r="71" spans="4:10" ht="19.5" customHeight="1">
-      <c r="D71" s="27" t="s">
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+    </row>
+    <row r="86" spans="4:10" ht="19.5" customHeight="1">
+      <c r="D86" s="28"/>
+      <c r="E86" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+    </row>
+    <row r="87" spans="4:10" ht="147" customHeight="1">
+      <c r="D87" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-    </row>
-    <row r="72" spans="4:10" ht="19.5" customHeight="1">
-      <c r="D72" s="27"/>
-      <c r="E72" s="29" t="s">
+      <c r="E87" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-    </row>
-    <row r="73" spans="4:10" ht="147" customHeight="1">
-      <c r="D73" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E73" s="28" t="s">
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+    </row>
+    <row r="88" spans="4:10" ht="58.5" customHeight="1">
+      <c r="D88" s="28"/>
+      <c r="E88" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-    </row>
-    <row r="74" spans="4:10" ht="58.5" customHeight="1">
-      <c r="D74" s="27"/>
-      <c r="E74" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="E85:J85"/>
+    <mergeCell ref="E86:J86"/>
+    <mergeCell ref="E87:J87"/>
+    <mergeCell ref="E88:J88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801315FB-73D8-4827-9A10-14AE53C63750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC041C2E-8530-4FA6-A145-D9A306F8D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26970" yWindow="2685" windowWidth="23640" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
+    <workbookView xWindow="-25905" yWindow="2025" windowWidth="23040" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2073,6 +2073,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2084,9 +2087,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5710,13 +5710,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAF8752-34D8-434C-91D0-A1F495AC0862}">
-  <dimension ref="B2:M88"/>
+  <dimension ref="B2:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5986,162 +5986,113 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="43.5">
-      <c r="B21" s="21" t="s">
+    <row r="23" spans="2:12" ht="43.5">
+      <c r="B23" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C23" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D23" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E23" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F23" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G23" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H23" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I23" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L23" s="20" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="E22" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="57">
-      <c r="B23" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="E24" s="21" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="43.5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="57">
       <c r="B25" s="21" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>267</v>
+        <v>203</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>241</v>
+        <v>205</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="E26" s="21" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>239</v>
+        <v>274</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="43.5">
       <c r="B27" s="21" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>239</v>
@@ -6149,22 +6100,22 @@
       <c r="F27" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="24" t="s">
         <v>241</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>242</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="E28" s="21" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>246</v>
@@ -6176,21 +6127,21 @@
         <v>247</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="46.5">
+        <v>256</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="43.5">
       <c r="B29" s="21" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>239</v>
@@ -6198,250 +6149,293 @@
       <c r="F29" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="21" t="s">
         <v>241</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>242</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="J29" s="25"/>
+        <v>251</v>
+      </c>
       <c r="L29" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="2:12">
       <c r="E30" s="21" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>246</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>247</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="46.5">
+      <c r="B31" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>258</v>
+      </c>
       <c r="E31" s="21" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>241</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="I31" s="21" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" ht="30">
+      <c r="J31" s="25"/>
+      <c r="L31" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
       <c r="E32" s="21" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>241</v>
+        <v>246</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>260</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>276</v>
+        <v>261</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="E33" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="30">
+      <c r="E34" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I34" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="L34" s="20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="E35" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G35" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H35" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I35" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="L33" s="25" t="s">
+      <c r="L35" s="25" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="46.5">
-      <c r="B38" s="21" t="s">
+    <row r="40" spans="2:12" ht="46.5">
+      <c r="B40" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C40" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D40" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E40" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F40" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G40" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H40" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I40" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="J40" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="L38" s="20" t="s">
+      <c r="L40" s="20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
-      <c r="E39" s="21" t="s">
+    <row r="41" spans="2:12">
+      <c r="E41" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F41" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G41" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H41" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I41" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="46.5">
-      <c r="B41" s="21" t="s">
+    <row r="43" spans="2:12" ht="46.5">
+      <c r="B43" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D43" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E43" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F43" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G43" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H43" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I43" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="J41" s="21" t="s">
+      <c r="J43" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="L41" s="20" t="s">
+      <c r="L43" s="20" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="2:12">
-      <c r="E42" s="21" t="s">
+    <row r="44" spans="2:12">
+      <c r="E44" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F44" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G44" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="H44" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="I42" s="21" t="s">
+      <c r="I44" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="44" spans="2:12" ht="46.5">
-      <c r="B44" s="21" t="s">
+      <c r="L44" s="20"/>
+    </row>
+    <row r="46" spans="2:12" ht="46.5">
+      <c r="B46" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C46" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D46" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E46" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F46" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G46" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H46" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I46" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="J44" s="20" t="s">
+      <c r="J46" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="L44" s="20" t="s">
+      <c r="L46" s="20" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="2:12">
-      <c r="E45" s="21" t="s">
+    <row r="47" spans="2:12">
+      <c r="E47" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F47" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G47" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="H45" s="21" t="s">
+      <c r="H47" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="I45" s="21" t="s">
+      <c r="I47" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="L45" s="20"/>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="L46" s="20"/>
-    </row>
-    <row r="47" spans="2:12">
       <c r="L47" s="20"/>
     </row>
     <row r="48" spans="2:12">
@@ -6453,57 +6447,35 @@
     <row r="50" spans="2:12">
       <c r="L50" s="20"/>
     </row>
+    <row r="51" spans="2:12">
+      <c r="L51" s="20"/>
+    </row>
     <row r="52" spans="2:12">
-      <c r="F52" s="21" t="s">
+      <c r="L52" s="20"/>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="F54" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="H54" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="K52" s="21" t="s">
+      <c r="K54" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="L52" s="21" t="s">
+      <c r="L54" s="21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="21" t="s">
+    <row r="55" spans="2:12">
+      <c r="B55" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="K53" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="E54" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12">
       <c r="C55" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>178</v>
@@ -6516,9 +6488,6 @@
       </c>
       <c r="K55" s="21" t="s">
         <v>167</v>
-      </c>
-      <c r="L55" s="21" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="56" spans="2:12">
@@ -6526,10 +6495,7 @@
         <v>173</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="L56" s="21" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="2:12">
@@ -6537,7 +6503,7 @@
         <v>168</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>178</v>
@@ -6550,6 +6516,9 @@
       </c>
       <c r="K57" s="21" t="s">
         <v>167</v>
+      </c>
+      <c r="L57" s="21" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="2:12">
@@ -6560,54 +6529,51 @@
         <v>184</v>
       </c>
       <c r="L58" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="C59" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="E60" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L60" s="21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="2:12">
-      <c r="L59" s="21" t="s">
+    <row r="61" spans="2:12">
+      <c r="L61" s="21" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="C61" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="K61" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="L61" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12">
-      <c r="E62" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="L62" s="21" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="63" spans="2:12">
       <c r="C63" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E63" s="21" t="s">
         <v>178</v>
@@ -6616,10 +6582,13 @@
         <v>163</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K63" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
+      </c>
+      <c r="L63" s="21" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="2:12">
@@ -6627,150 +6596,181 @@
         <v>173</v>
       </c>
       <c r="H64" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L64" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11">
+      <c r="C65" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11">
+      <c r="E66" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H66" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="3:5">
-      <c r="C66" s="21" t="s">
+    <row r="68" spans="3:11">
+      <c r="C68" s="21" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="3:5">
-      <c r="C67" s="21" t="s">
+    <row r="69" spans="3:11">
+      <c r="C69" s="21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="3:5">
-      <c r="C75" s="22" t="s">
+    <row r="77" spans="3:11">
+      <c r="C77" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D77" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E77" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="3:5">
-      <c r="C76" s="22" t="s">
+    <row r="78" spans="3:11">
+      <c r="C78" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D78" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E76" s="24" t="s">
+      <c r="E78" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="3:5">
-      <c r="C77" s="22" t="s">
+    <row r="79" spans="3:11">
+      <c r="C79" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D79" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="E79" s="24" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5">
-      <c r="E79" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5">
-      <c r="E80" s="21" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="81" spans="4:10">
       <c r="E81" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10">
+      <c r="E82" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="4:10">
+      <c r="E83" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="4:10" ht="44.25" customHeight="1">
-      <c r="D83" s="28" t="s">
+    <row r="85" spans="4:10" ht="44.25" customHeight="1">
+      <c r="D85" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E85" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-    </row>
-    <row r="84" spans="4:10" ht="21" customHeight="1">
-      <c r="D84" s="28"/>
-      <c r="E84" s="30" t="s">
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+    </row>
+    <row r="86" spans="4:10" ht="21" customHeight="1">
+      <c r="D86" s="29"/>
+      <c r="E86" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-    </row>
-    <row r="85" spans="4:10" ht="19.5" customHeight="1">
-      <c r="D85" s="28" t="s">
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+    </row>
+    <row r="87" spans="4:10" ht="19.5" customHeight="1">
+      <c r="D87" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="E87" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
-    </row>
-    <row r="86" spans="4:10" ht="19.5" customHeight="1">
-      <c r="D86" s="28"/>
-      <c r="E86" s="30" t="s">
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="4:10" ht="19.5" customHeight="1">
+      <c r="D88" s="29"/>
+      <c r="E88" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
-    </row>
-    <row r="87" spans="4:10" ht="147" customHeight="1">
-      <c r="D87" s="28" t="s">
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+    </row>
+    <row r="89" spans="4:10" ht="147" customHeight="1">
+      <c r="D89" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="E89" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
-    </row>
-    <row r="88" spans="4:10" ht="58.5" customHeight="1">
-      <c r="D88" s="28"/>
-      <c r="E88" s="30" t="s">
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+    </row>
+    <row r="90" spans="4:10" ht="58.5" customHeight="1">
+      <c r="D90" s="29"/>
+      <c r="E90" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="30"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D83:D84"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="E84:J84"/>
+    <mergeCell ref="D89:D90"/>
     <mergeCell ref="E85:J85"/>
     <mergeCell ref="E86:J86"/>
     <mergeCell ref="E87:J87"/>
     <mergeCell ref="E88:J88"/>
+    <mergeCell ref="E89:J89"/>
+    <mergeCell ref="E90:J90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC041C2E-8530-4FA6-A145-D9A306F8D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25905" yWindow="2025" windowWidth="23040" windowHeight="12960" activeTab="1" xr2:uid="{3D7E14D8-6975-4ED3-B449-3B03DE7CD9A7}"/>
+    <workbookView xWindow="-25905" yWindow="2025" windowWidth="23040" windowHeight="12960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$K$131</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1504,42 +1503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I want you to succeed.
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목적보어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1694,12 +1657,50 @@
     <t>her', 'to', 'soon'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I want you to succeed.
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1887,6 +1888,13 @@
       <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2421,7 +2429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974492D6-350D-4A8E-8EA6-5776C8BB06E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5702,21 +5710,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K131" xr:uid="{974492D6-350D-4A8E-8EA6-5776C8BB06E0}"/>
+  <autoFilter ref="A5:K131"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAF8752-34D8-434C-91D0-A1F495AC0862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5908,7 +5916,7 @@
         <v>234</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>190</v>
@@ -6043,7 +6051,7 @@
         <v>203</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>204</v>
@@ -6055,18 +6063,18 @@
         <v>206</v>
       </c>
       <c r="H25" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I25" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="21" t="s">
-        <v>272</v>
-      </c>
       <c r="L25" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="E26" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>207</v>
@@ -6078,10 +6086,10 @@
         <v>39</v>
       </c>
       <c r="I26" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="J26" s="25" t="s">
         <v>274</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="43.5">
@@ -6092,7 +6100,7 @@
         <v>231</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>239</v>
@@ -6141,7 +6149,7 @@
         <v>203</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>239</v>
@@ -6182,7 +6190,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="46.5">
+    <row r="31" spans="2:12" ht="40.5">
       <c r="B31" s="21" t="s">
         <v>249</v>
       </c>
@@ -6190,7 +6198,7 @@
         <v>231</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>239</v>
@@ -6205,48 +6213,48 @@
         <v>242</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J31" s="25"/>
       <c r="L31" s="20" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="E32" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>246</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>247</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="E33" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="G33" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="H33" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="H33" s="21" t="s">
-        <v>265</v>
-      </c>
       <c r="I33" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="30">
@@ -6263,30 +6271,30 @@
         <v>242</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="E35" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>246</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>247</v>
       </c>
       <c r="I35" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="L35" s="25" t="s">
         <v>278</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="46.5">
@@ -6774,5 +6782,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0D7947-BC90-413E-B6B1-B6A383E9515D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25905" yWindow="2025" windowWidth="23040" windowHeight="12960" activeTab="1"/>
+    <workbookView xWindow="-28680" yWindow="1455" windowWidth="24210" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,23 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="306">
   <si>
     <t>will</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1695,11 +1685,208 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>to 부정사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To study English is important.
+                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">__(
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_____□</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csubj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watching movies affects my sleep.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">__________□
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsubj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watching', 'movies', 'sleep',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -2429,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:K131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5710,21 +5897,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K131"/>
+  <autoFilter ref="A5:K131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5994,162 +6181,159 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="43.5">
+    <row r="23" spans="2:12" ht="46.5">
       <c r="B23" s="21" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="E24" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="43.5">
+      <c r="B25" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="57">
-      <c r="B25" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>271</v>
-      </c>
       <c r="L25" s="20" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="E26" s="21" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="43.5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="57">
       <c r="B27" s="21" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>266</v>
+        <v>203</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>269</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>241</v>
+        <v>205</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="E28" s="21" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>239</v>
+        <v>273</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="43.5">
       <c r="B29" s="21" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>239</v>
@@ -6157,22 +6341,22 @@
       <c r="F29" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="24" t="s">
         <v>241</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>242</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="2:12">
       <c r="E30" s="21" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>246</v>
@@ -6184,21 +6368,21 @@
         <v>247</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="40.5">
+        <v>256</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="43.5">
       <c r="B31" s="21" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>239</v>
@@ -6206,193 +6390,214 @@
       <c r="F31" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="21" t="s">
         <v>241</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>242</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="J31" s="25"/>
+        <v>251</v>
+      </c>
       <c r="L31" s="20" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="E32" s="21" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>246</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>247</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="40.5">
+      <c r="B33" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="E33" s="21" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>263</v>
+        <v>240</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>241</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="I33" s="21" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" ht="30">
+      <c r="J33" s="25"/>
+      <c r="L33" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
       <c r="E34" s="21" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>241</v>
+        <v>246</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>259</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>275</v>
+        <v>260</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="E35" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="30">
+      <c r="E36" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I36" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="L36" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="E37" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="F37" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G37" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H37" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I37" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="L35" s="25" t="s">
+      <c r="L37" s="25" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="46.5">
-      <c r="B40" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="L40" s="20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="E41" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="46.5">
-      <c r="B43" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>232</v>
-      </c>
+    <row r="42" spans="2:12" ht="46.5">
+      <c r="B42" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
       <c r="E43" s="21" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>216</v>
+        <v>298</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>299</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="L43" s="20" t="s">
-        <v>222</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="2:12">
       <c r="E44" s="21" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>226</v>
+        <v>296</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>304</v>
       </c>
       <c r="L44" s="20"/>
     </row>
@@ -6407,173 +6612,202 @@
         <v>232</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>211</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="2:12">
       <c r="E47" s="21" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="46.5">
+      <c r="B49" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="J49" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="L49" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="E50" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="H50" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="52" spans="2:12" ht="46.5">
+      <c r="B52" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="L52" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="E53" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H53" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I53" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="L47" s="20"/>
-    </row>
-    <row r="48" spans="2:12">
-      <c r="L48" s="20"/>
-    </row>
-    <row r="49" spans="2:12">
-      <c r="L49" s="20"/>
-    </row>
-    <row r="50" spans="2:12">
-      <c r="L50" s="20"/>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="L51" s="20"/>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="L52" s="20"/>
+      <c r="L53" s="20"/>
     </row>
     <row r="54" spans="2:12">
-      <c r="F54" s="21" t="s">
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="L56" s="20"/>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="L57" s="20"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="L58" s="20"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="F60" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H54" s="21" t="s">
+      <c r="H60" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="K54" s="21" t="s">
+      <c r="K60" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="L54" s="21" t="s">
+      <c r="L60" s="21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="2:12">
-      <c r="B55" s="21" t="s">
+    <row r="61" spans="2:12">
+      <c r="B61" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C61" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D61" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E61" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F61" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="H55" s="21" t="s">
+      <c r="H61" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="K55" s="21" t="s">
+      <c r="K61" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="2:12">
-      <c r="E56" s="21" t="s">
+    <row r="62" spans="2:12">
+      <c r="E62" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="H56" s="21" t="s">
+      <c r="H62" s="21" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="C57" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="K57" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="L57" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="E58" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="L58" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="C59" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="K59" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12">
-      <c r="E60" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="L60" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="L61" s="21" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="63" spans="2:12">
@@ -6581,7 +6815,7 @@
         <v>168</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E63" s="21" t="s">
         <v>178</v>
@@ -6607,15 +6841,15 @@
         <v>184</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="3:11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12">
       <c r="C65" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>178</v>
@@ -6624,161 +6858,231 @@
         <v>163</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K65" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="3:11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12">
       <c r="E66" s="21" t="s">
         <v>173</v>
       </c>
       <c r="H66" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L66" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12">
+      <c r="L67" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12">
+      <c r="C69" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K69" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L69" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12">
+      <c r="E70" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L70" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12">
+      <c r="C71" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K71" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12">
+      <c r="E72" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H72" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="3:11">
-      <c r="C68" s="21" t="s">
+    <row r="74" spans="3:12">
+      <c r="C74" s="21" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="3:11">
-      <c r="C69" s="21" t="s">
+    <row r="75" spans="3:12">
+      <c r="C75" s="21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="3:11">
-      <c r="C77" s="22" t="s">
+    <row r="83" spans="3:10">
+      <c r="C83" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D83" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="E83" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="3:11">
-      <c r="C78" s="22" t="s">
+    <row r="84" spans="3:10">
+      <c r="C84" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D84" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="24" t="s">
+      <c r="E84" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="3:11">
-      <c r="C79" s="22" t="s">
+    <row r="85" spans="3:10">
+      <c r="C85" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D85" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E79" s="24" t="s">
+      <c r="E85" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="4:10">
-      <c r="E81" s="21" t="s">
+    <row r="87" spans="3:10">
+      <c r="E87" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="4:10">
-      <c r="E82" s="21" t="s">
+    <row r="88" spans="3:10">
+      <c r="E88" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="4:10">
-      <c r="E83" s="21" t="s">
+    <row r="89" spans="3:10">
+      <c r="E89" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="4:10" ht="44.25" customHeight="1">
-      <c r="D85" s="29" t="s">
+    <row r="91" spans="3:10" ht="44.25" customHeight="1">
+      <c r="D91" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E91" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-    </row>
-    <row r="86" spans="4:10" ht="21" customHeight="1">
-      <c r="D86" s="29"/>
-      <c r="E86" s="31" t="s">
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+    </row>
+    <row r="92" spans="3:10" ht="21" customHeight="1">
+      <c r="D92" s="29"/>
+      <c r="E92" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="31"/>
-    </row>
-    <row r="87" spans="4:10" ht="19.5" customHeight="1">
-      <c r="D87" s="29" t="s">
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+    </row>
+    <row r="93" spans="3:10" ht="19.5" customHeight="1">
+      <c r="D93" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E93" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="4:10" ht="19.5" customHeight="1">
-      <c r="D88" s="29"/>
-      <c r="E88" s="31" t="s">
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+    </row>
+    <row r="94" spans="3:10" ht="19.5" customHeight="1">
+      <c r="D94" s="29"/>
+      <c r="E94" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
-    </row>
-    <row r="89" spans="4:10" ht="147" customHeight="1">
-      <c r="D89" s="29" t="s">
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31"/>
+    </row>
+    <row r="95" spans="3:10" ht="147" customHeight="1">
+      <c r="D95" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E95" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-    </row>
-    <row r="90" spans="4:10" ht="58.5" customHeight="1">
-      <c r="D90" s="29"/>
-      <c r="E90" s="31" t="s">
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+    </row>
+    <row r="96" spans="3:10" ht="58.5" customHeight="1">
+      <c r="D96" s="29"/>
+      <c r="E96" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E85:J85"/>
-    <mergeCell ref="E86:J86"/>
-    <mergeCell ref="E87:J87"/>
-    <mergeCell ref="E88:J88"/>
-    <mergeCell ref="E89:J89"/>
-    <mergeCell ref="E90:J90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E91:J91"/>
+    <mergeCell ref="E92:J92"/>
+    <mergeCell ref="E93:J93"/>
+    <mergeCell ref="E94:J94"/>
+    <mergeCell ref="E95:J95"/>
+    <mergeCell ref="E96:J96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0D7947-BC90-413E-B6B1-B6A383E9515D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28680" yWindow="1455" windowWidth="24210" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28680" yWindow="1455" windowWidth="24210" windowHeight="12960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -851,12 +850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I know that she is coming.
-  ○    ◇
-       ◇        ...○</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>that</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -946,12 +939,6 @@
   </si>
   <si>
     <t>첫단어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>That she passed the exam was surprising.
-[                      ] ○___(
-◇        ○__________□</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1015,12 +1002,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I told him that he was wrong.
-  ○____□   ◇
-           ◇       ○___(</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>was</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1073,71 +1054,6 @@
   </si>
   <si>
     <t>xcomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I enjoy reading books.
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">_______
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">       □    </t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1348,9 +1264,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">She hopes to travel the world.
-    </t>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to', 'world'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xcomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hopes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to 부정사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">His dream is to become a doctor.
+          </t>
     </r>
     <r>
       <rPr>
@@ -1358,6 +1318,416 @@
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
         <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>__[                ]
+             to.R________[</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>become</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to', 'doctor'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She taught me to swim.
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>______□__□     ]
+              to.R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taught</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적보어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsubj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어보어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접목적어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>', 'to'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   |           i
+He wants to be traveling now.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_____□                 ]
+         to....R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적어
+(완진수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to', 'be', 'now'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We expect her to arrive soon.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>__________□            ]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>her', 'to', 'soon'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I want you to succeed.
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to 부정사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To study English is important.
+                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">__(
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_____□</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csubj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsubj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watching', 'movies', 'sleep',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She hopes to travel the world.
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>◯</t>
     </r>
@@ -1375,282 +1745,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>travel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to', 'world'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xcomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hopes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to 부정사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">His dream is to become a doctor.
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>__[                ]
-             to.R________[</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>become</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to', 'doctor'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She taught me to swim.
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>______□__□     ]
-              to.R</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taught</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목적보어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>succeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>want</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>you</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nsubj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주어보어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직접목적어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>you</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>', 'to'</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   |           i
-He wants to be traveling now.
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>_____□                 ]
-         to....R</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목적어
-(완진수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>traveling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>traveling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wants</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to', 'be', 'now'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We expect her to arrive soon.
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>__________□            ]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>her', 'to', 'soon'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I want you to succeed.
-  </t>
+    <t>That she passed the exam was surprising.
+[                      ] ○___(
+◇        ○__________□</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watching movies affects my sleep.
+</t>
     </r>
     <r>
       <rPr>
@@ -1670,8 +1773,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">
-              </t>
+      <t xml:space="preserve">               </t>
     </r>
     <r>
       <rPr>
@@ -1680,135 +1782,6 @@
         <rFont val="MS Gothic"/>
         <family val="3"/>
         <charset val="128"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to 부정사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To study English is important.
-                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">__(
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>_____□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>csubj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Watching movies affects my sleep.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
       </rPr>
       <t>◯</t>
     </r>
@@ -1827,66 +1800,99 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
+        <rFont val="MS Gothic"/>
         <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>◯</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Watching</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VBG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>affects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nsubj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VBZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Watching', 'movies', 'sleep',</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동명사</t>
+    <r>
+      <t xml:space="preserve">I enjoy reading books.
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">_______
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">       □    </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I know that she is coming.
+  ○    ◇
+       ◇        ...○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I told him that he was wrong.
+  ○____□   ◇
+           ◇       ○___(</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -2616,7 +2622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5897,21 +5903,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:K131"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5930,13 +5936,13 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>144</v>
@@ -5965,13 +5971,13 @@
     </row>
     <row r="3" spans="2:13" ht="54" customHeight="1">
       <c r="B3" s="21" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>111</v>
@@ -5986,7 +5992,7 @@
         <v>143</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>179</v>
+        <v>301</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>108</v>
@@ -6007,47 +6013,47 @@
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="40.5">
       <c r="B6" s="21" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>147</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>143</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>155</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="E7" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="I7" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="J7" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -6056,94 +6062,94 @@
     </row>
     <row r="9" spans="2:13" ht="40.5">
       <c r="B9" s="21" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J9" s="25"/>
       <c r="L9" s="20" t="s">
-        <v>194</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="2:13">
       <c r="E10" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="40.5">
       <c r="B13" s="21" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="2:13">
       <c r="E14" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="40.5">
       <c r="B18" s="21" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>146</v>
@@ -6183,570 +6189,570 @@
     </row>
     <row r="23" spans="2:12" ht="46.5">
       <c r="B23" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="G23" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="H23" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>287</v>
-      </c>
       <c r="I23" s="21" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="E24" s="21" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="43.5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="40.5">
       <c r="B25" s="21" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="E26" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I26" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>248</v>
-      </c>
       <c r="J26" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="57">
       <c r="B27" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="G27" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>206</v>
-      </c>
       <c r="H27" s="21" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="E28" s="21" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>39</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="43.5">
       <c r="B29" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" s="20" t="s">
         <v>249</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="30" spans="2:12">
       <c r="E30" s="21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="43.5">
       <c r="B31" s="21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="E32" s="21" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H32" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I32" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="I32" s="21" t="s">
-        <v>252</v>
-      </c>
       <c r="J32" s="25" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="40.5">
       <c r="B33" s="21" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J33" s="25"/>
       <c r="L33" s="20" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="E34" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="E35" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="30">
       <c r="E36" s="21" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="E37" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="40.5">
+      <c r="B42" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="F37" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="I37" s="21" t="s">
+      <c r="D42" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="L37" s="25" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="46.5">
-      <c r="B42" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>282</v>
-      </c>
       <c r="E42" s="21" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F42" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H42" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="I42" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="J42" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="I42" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="J42" s="28" t="s">
-        <v>301</v>
-      </c>
       <c r="L42" s="20" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="E43" s="21" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L43" s="20"/>
     </row>
     <row r="44" spans="2:12">
       <c r="E44" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="G44" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>302</v>
-      </c>
       <c r="H44" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="46" spans="2:12" ht="40.5">
+      <c r="B46" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="L46" s="20" t="s">
         <v>303</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="L44" s="20"/>
-    </row>
-    <row r="46" spans="2:12" ht="46.5">
-      <c r="B46" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="L46" s="20" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="47" spans="2:12">
       <c r="E47" s="21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="46.5">
       <c r="B49" s="21" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J49" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L49" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="E50" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L50" s="20"/>
     </row>
     <row r="52" spans="2:12" ht="46.5">
       <c r="B52" s="21" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L52" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="2:12">
       <c r="E53" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L53" s="20"/>
     </row>
@@ -6767,189 +6773,189 @@
     </row>
     <row r="60" spans="2:12">
       <c r="F60" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L60" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="2:12">
       <c r="E62" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H62" s="21" t="s">
         <v>173</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="63" spans="2:12">
       <c r="C63" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D63" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L63" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="K63" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="L63" s="21" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="64" spans="2:12">
       <c r="E64" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H64" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L64" s="21" t="s">
         <v>184</v>
-      </c>
-      <c r="L64" s="21" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="65" spans="3:12">
       <c r="C65" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K65" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="3:12">
       <c r="E66" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="3:12">
       <c r="L67" s="21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="3:12">
       <c r="C69" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K69" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L69" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="3:12">
       <c r="E70" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="3:12">
       <c r="C71" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H71" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D71" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H71" s="21" t="s">
+      <c r="K71" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="K71" s="21" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="72" spans="3:12">
       <c r="E72" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="3:12">
       <c r="C74" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="3:12">
       <c r="C75" s="21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="3:10">

--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5CBC1E-270C-46C5-A8AB-6A2A18C473F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28680" yWindow="1455" windowWidth="24210" windowHeight="12960" activeTab="1"/>
+    <workbookView xWindow="-26205" yWindow="2715" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1717,6 +1718,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>That she passed the exam was surprising.
+[                      ] ○___(
+◇        ○__________□</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I know that she is coming.
+  ○    ◇
+       ◇        ...○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I told him that he was wrong.
+  ○____□   ◇
+           ◇       ○___(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">She hopes to travel the world.
     </t>
@@ -1725,9 +1744,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="MS Gothic"/>
+        <rFont val="Segoe UI Symbol"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>◯</t>
     </r>
@@ -1745,23 +1763,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>That she passed the exam was surprising.
-[                      ] ○___(
-◇        ○__________□</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Watching movies affects my sleep.
-</t>
+    <r>
+      <t xml:space="preserve">I enjoy reading books.
+  </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="MS Gothic"/>
+        <rFont val="Segoe UI Symbol"/>
         <family val="3"/>
-        <charset val="128"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">_______
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">       □    </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watching movies affects my sleep.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
       </rPr>
       <t>◯</t>
     </r>
@@ -1779,9 +1855,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="MS Gothic"/>
+        <rFont val="Segoe UI Symbol"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>◯</t>
     </r>
@@ -1800,99 +1875,18 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="MS Gothic"/>
+        <rFont val="Segoe UI Symbol"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>◯</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I enjoy reading books.
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">_______
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">       □    </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I know that she is coming.
-  ○    ◇
-       ◇        ...○</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I told him that he was wrong.
-  ○____□   ◇
-           ◇       ○___(</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -2622,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:K131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5903,21 +5897,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K131"/>
+  <autoFilter ref="A5:K131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5992,7 +5986,7 @@
         <v>143</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>108</v>
@@ -6039,7 +6033,7 @@
         <v>143</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -6084,7 +6078,7 @@
       </c>
       <c r="J9" s="25"/>
       <c r="L9" s="20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -6146,7 +6140,7 @@
         <v>229</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>198</v>
@@ -6233,7 +6227,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="40.5">
+    <row r="25" spans="2:12" ht="43.5">
       <c r="B25" s="21" t="s">
         <v>244</v>
       </c>
@@ -6259,7 +6253,7 @@
         <v>238</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -6536,7 +6530,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="40.5">
+    <row r="42" spans="2:12" ht="46.5">
       <c r="B42" s="21" t="s">
         <v>299</v>
       </c>
@@ -6565,7 +6559,7 @@
         <v>295</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="2:12">
@@ -6607,7 +6601,7 @@
       </c>
       <c r="L44" s="20"/>
     </row>
-    <row r="46" spans="2:12" ht="40.5">
+    <row r="46" spans="2:12" ht="46.5">
       <c r="B46" s="21" t="s">
         <v>226</v>
       </c>
@@ -6636,7 +6630,7 @@
         <v>217</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="2:12">

--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5CBC1E-270C-46C5-A8AB-6A2A18C473F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483707ED-D906-4420-BA7C-686CAE7D5611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26205" yWindow="2715" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26535" yWindow="2775" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5908,10 +5908,10 @@
   <dimension ref="B2:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483707ED-D906-4420-BA7C-686CAE7D5611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41073C3E-BCDA-4DC6-A965-A7A82B57C7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26535" yWindow="2775" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="3525" windowWidth="23190" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="309">
   <si>
     <t>will</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1880,6 +1880,18 @@
       </rPr>
       <t>◯</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5905,13 +5917,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:M96"/>
+  <dimension ref="B2:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6306,451 +6318,467 @@
       </c>
     </row>
     <row r="28" spans="2:12">
+      <c r="D28" s="20"/>
       <c r="E28" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="E29" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F29" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G29" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H29" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I29" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J29" s="25" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="43.5">
-      <c r="B29" s="21" t="s">
+    <row r="30" spans="2:12" ht="43.5">
+      <c r="B30" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C30" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D30" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E30" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F30" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G30" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H30" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I30" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="L30" s="20" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
-      <c r="E30" s="21" t="s">
+    <row r="31" spans="2:12">
+      <c r="E31" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F31" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G31" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H31" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I31" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J31" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="43.5">
-      <c r="B31" s="21" t="s">
+    <row r="32" spans="2:12" ht="43.5">
+      <c r="B32" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C32" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D32" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E32" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F32" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G32" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H32" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I32" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L32" s="20" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
-      <c r="E32" s="21" t="s">
+    <row r="33" spans="2:12">
+      <c r="E33" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F33" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G33" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H33" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I33" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="J33" s="25" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="40.5">
-      <c r="B33" s="21" t="s">
+    <row r="34" spans="2:12" ht="40.5">
+      <c r="B34" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C34" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D34" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E34" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F34" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G34" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H34" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I34" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="J33" s="25"/>
-      <c r="L33" s="20" t="s">
+      <c r="J34" s="25"/>
+      <c r="L34" s="20" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="E34" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="E35" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="E36" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F36" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G36" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H36" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I36" s="21" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="30">
-      <c r="E36" s="21" t="s">
+    <row r="37" spans="2:12" ht="30">
+      <c r="E37" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F37" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G37" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H37" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I37" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L37" s="20" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
-      <c r="E37" s="21" t="s">
+    <row r="38" spans="2:12">
+      <c r="E38" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F38" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G38" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H38" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I38" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="L38" s="25" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="46.5">
-      <c r="B42" s="21" t="s">
+    <row r="43" spans="2:12" ht="46.5">
+      <c r="B43" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D43" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E43" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F43" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G43" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="H43" s="21" t="s">
         <v>289</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="J42" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12">
-      <c r="E43" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>294</v>
       </c>
       <c r="I43" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="L43" s="20"/>
+      <c r="J43" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="44" spans="2:12">
       <c r="E44" s="21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I44" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="J44" s="25" t="s">
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="E45" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="J45" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="L44" s="20"/>
-    </row>
-    <row r="46" spans="2:12" ht="46.5">
-      <c r="B46" s="21" t="s">
+      <c r="L45" s="20"/>
+    </row>
+    <row r="47" spans="2:12" ht="46.5">
+      <c r="B47" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C47" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D47" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E47" s="21" t="s">
         <v>206</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="L46" s="20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12">
-      <c r="E47" s="21" t="s">
-        <v>208</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G47" s="21" t="s">
-        <v>209</v>
+      <c r="G47" s="27" t="s">
+        <v>205</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I47" s="21" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" ht="46.5">
-      <c r="B49" s="21" t="s">
+      <c r="J47" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="E48" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="46.5">
+      <c r="B50" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C50" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D50" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E50" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F50" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G50" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="H49" s="21" t="s">
+      <c r="H50" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="I49" s="21" t="s">
+      <c r="I50" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="J49" s="21" t="s">
+      <c r="J50" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="L49" s="20" t="s">
+      <c r="L50" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="2:12">
-      <c r="E50" s="21" t="s">
+    <row r="51" spans="2:12">
+      <c r="E51" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F51" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G51" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="H51" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I51" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="L50" s="20"/>
-    </row>
-    <row r="52" spans="2:12" ht="46.5">
-      <c r="B52" s="21" t="s">
+      <c r="L51" s="20"/>
+    </row>
+    <row r="53" spans="2:12" ht="46.5">
+      <c r="B53" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C53" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D53" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E53" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F53" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="G53" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="H53" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="I53" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="J52" s="20" t="s">
+      <c r="J53" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="L52" s="20" t="s">
+      <c r="L53" s="20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="2:12">
-      <c r="E53" s="21" t="s">
+    <row r="54" spans="2:12">
+      <c r="E54" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F54" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G54" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H54" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="I54" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="L53" s="20"/>
-    </row>
-    <row r="54" spans="2:12">
       <c r="L54" s="20"/>
     </row>
     <row r="55" spans="2:12">
@@ -6765,324 +6793,327 @@
     <row r="58" spans="2:12">
       <c r="L58" s="20"/>
     </row>
-    <row r="60" spans="2:12">
-      <c r="F60" s="21" t="s">
+    <row r="59" spans="2:12">
+      <c r="L59" s="20"/>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="F61" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="H61" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="K60" s="21" t="s">
+      <c r="K61" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="L60" s="21" t="s">
+      <c r="L61" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="2:12">
-      <c r="B61" s="21" t="s">
+    <row r="62" spans="2:12">
+      <c r="B62" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C62" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D62" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E62" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F62" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H62" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="K61" s="21" t="s">
+      <c r="K62" s="21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="2:12">
-      <c r="E62" s="21" t="s">
+    <row r="63" spans="2:12">
+      <c r="E63" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H63" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="2:12">
-      <c r="C63" s="21" t="s">
+    <row r="64" spans="2:12">
+      <c r="C64" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D64" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E64" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F64" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H63" s="21" t="s">
+      <c r="H64" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="K63" s="21" t="s">
+      <c r="K64" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="L63" s="21" t="s">
+      <c r="L64" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="2:12">
-      <c r="E64" s="21" t="s">
+    <row r="65" spans="3:12">
+      <c r="E65" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="H64" s="21" t="s">
+      <c r="H65" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="L64" s="21" t="s">
+      <c r="L65" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="3:12">
-      <c r="C65" s="21" t="s">
+    <row r="66" spans="3:12">
+      <c r="C66" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D66" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E66" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F66" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H65" s="21" t="s">
+      <c r="H66" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="K65" s="21" t="s">
+      <c r="K66" s="21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="3:12">
-      <c r="E66" s="21" t="s">
+    <row r="67" spans="3:12">
+      <c r="E67" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="H66" s="21" t="s">
+      <c r="H67" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="L66" s="21" t="s">
+      <c r="L67" s="21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="3:12">
-      <c r="L67" s="21" t="s">
+    <row r="68" spans="3:12">
+      <c r="L68" s="21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="3:12">
-      <c r="C69" s="21" t="s">
+    <row r="70" spans="3:12">
+      <c r="C70" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D70" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E70" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F70" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H69" s="21" t="s">
+      <c r="H70" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="K69" s="21" t="s">
+      <c r="K70" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="L69" s="21" t="s">
+      <c r="L70" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="3:12">
-      <c r="E70" s="21" t="s">
+    <row r="71" spans="3:12">
+      <c r="E71" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="H70" s="21" t="s">
+      <c r="H71" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="L70" s="21" t="s">
+      <c r="L71" s="21" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="3:12">
-      <c r="C71" s="21" t="s">
+    <row r="72" spans="3:12">
+      <c r="C72" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D72" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="E72" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F72" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H71" s="21" t="s">
+      <c r="H72" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="K71" s="21" t="s">
+      <c r="K72" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="3:12">
-      <c r="E72" s="21" t="s">
+    <row r="73" spans="3:12">
+      <c r="E73" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="H72" s="21" t="s">
+      <c r="H73" s="21" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="74" spans="3:12">
-      <c r="C74" s="21" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="75" spans="3:12">
       <c r="C75" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12">
+      <c r="C76" s="21" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="83" spans="3:10">
-      <c r="C83" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="84" spans="3:10">
       <c r="C84" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="3:10">
       <c r="C85" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10">
+      <c r="C86" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D86" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E86" s="24" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="3:10">
-      <c r="E87" s="21" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="88" spans="3:10">
       <c r="E88" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="3:10">
       <c r="E89" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10">
+      <c r="E90" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="3:10" ht="44.25" customHeight="1">
-      <c r="D91" s="29" t="s">
+    <row r="92" spans="3:10" ht="44.25" customHeight="1">
+      <c r="D92" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E92" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-    </row>
-    <row r="92" spans="3:10" ht="21" customHeight="1">
-      <c r="D92" s="29"/>
-      <c r="E92" s="31" t="s">
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+    </row>
+    <row r="93" spans="3:10" ht="21" customHeight="1">
+      <c r="D93" s="29"/>
+      <c r="E93" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-    </row>
-    <row r="93" spans="3:10" ht="19.5" customHeight="1">
-      <c r="D93" s="29" t="s">
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+    </row>
+    <row r="94" spans="3:10" ht="19.5" customHeight="1">
+      <c r="D94" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E93" s="30" t="s">
+      <c r="E94" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-    </row>
-    <row r="94" spans="3:10" ht="19.5" customHeight="1">
-      <c r="D94" s="29"/>
-      <c r="E94" s="31" t="s">
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+    </row>
+    <row r="95" spans="3:10" ht="19.5" customHeight="1">
+      <c r="D95" s="29"/>
+      <c r="E95" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="31"/>
-    </row>
-    <row r="95" spans="3:10" ht="147" customHeight="1">
-      <c r="D95" s="29" t="s">
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="31"/>
+    </row>
+    <row r="96" spans="3:10" ht="147" customHeight="1">
+      <c r="D96" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E95" s="30" t="s">
+      <c r="E96" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="30"/>
-    </row>
-    <row r="96" spans="3:10" ht="58.5" customHeight="1">
-      <c r="D96" s="29"/>
-      <c r="E96" s="31" t="s">
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+    </row>
+    <row r="97" spans="4:10" ht="58.5" customHeight="1">
+      <c r="D97" s="29"/>
+      <c r="E97" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E91:J91"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D96:D97"/>
     <mergeCell ref="E92:J92"/>
     <mergeCell ref="E93:J93"/>
     <mergeCell ref="E94:J94"/>
     <mergeCell ref="E95:J95"/>
     <mergeCell ref="E96:J96"/>
+    <mergeCell ref="E97:J97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41073C3E-BCDA-4DC6-A965-A7A82B57C7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3096C8-D959-4CBA-8EBC-580AAB3C35AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="3525" windowWidth="23190" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26280" yWindow="2640" windowWidth="21600" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$K$131</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="331">
   <si>
     <t>will</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1500,9 +1501,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">We expect her to arrive soon.
-   </t>
+    <t>arrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>her', 'to', 'soon'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to 부정사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To study English is important.
+                 </t>
     </r>
     <r>
       <rPr>
@@ -1521,34 +1546,302 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>__________□            ]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>her', 'to', 'soon'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I want you to succeed.
-  </t>
+      <t xml:space="preserve">__(
+   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="MS Gothic"/>
+        <rFont val="Segoe UI Symbol"/>
         <family val="3"/>
-        <charset val="128"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_____□</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csubj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsubj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watching', 'movies', 'sleep',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That she passed the exam was surprising.
+[                      ] ○___(
+◇        ○__________□</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I know that she is coming.
+  ○    ◇
+       ◇        ...○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I told him that he was wrong.
+  ○____□   ◇
+           ◇       ○___(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She hopes to travel the world.
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_____□                 ]
+          to.R__________□</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I enjoy reading books.
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">_______
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">       □    </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watching movies affects my sleep.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">__________□
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I want you to succeed.
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
       </rPr>
       <t>◯</t>
     </r>
@@ -1567,30 +1860,17 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="MS Gothic"/>
+        <rFont val="Segoe UI Symbol"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>◯</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>to 부정사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To study English is important.
-                 </t>
+    <r>
+      <t xml:space="preserve">We expect her to arrive soon.
+   </t>
     </r>
     <r>
       <rPr>
@@ -1609,7 +1889,34 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">__(
+      <t>______□___[            ]
+              to......R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>her</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsubj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He is to arrive here.
    </t>
     </r>
     <r>
@@ -1629,8 +1936,29 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>_____□</t>
-    </r>
+      <t xml:space="preserve">
+      to......R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dream, become</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1642,256 +1970,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>verb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>csubj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Watching</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VBG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>affects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nsubj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VBZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Watching', 'movies', 'sleep',</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동명사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>That she passed the exam was surprising.
-[                      ] ○___(
-◇        ○__________□</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I know that she is coming.
-  ○    ◇
-       ◇        ...○</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I told him that he was wrong.
-  ○____□   ◇
-           ◇       ○___(</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She hopes to travel the world.
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>_____□                 ]
-          to.R__________□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I enjoy reading books.
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">_______
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">       □    </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Watching movies affects my sleep.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">__________□
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>traveling</t>
+    <t>xcomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to, here</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dobj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taught</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she, me, swim</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1899,7 +2010,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2087,13 +2198,6 @@
       <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -5917,13 +6021,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:M97"/>
+  <dimension ref="B2:M107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5998,7 +6102,7 @@
         <v>143</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>108</v>
@@ -6045,7 +6149,7 @@
         <v>143</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -6090,7 +6194,7 @@
       </c>
       <c r="J9" s="25"/>
       <c r="L9" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -6195,48 +6299,48 @@
     </row>
     <row r="23" spans="2:12" ht="46.5">
       <c r="B23" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="E23" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="L23" s="20" t="s">
         <v>276</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="E24" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="H24" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="I24" s="21" t="s">
         <v>285</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="43.5">
@@ -6265,7 +6369,7 @@
         <v>238</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -6323,16 +6427,16 @@
         <v>34</v>
       </c>
       <c r="F28" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>306</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>308</v>
       </c>
       <c r="L28" s="20"/>
     </row>
@@ -6367,19 +6471,22 @@
         <v>261</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>236</v>
+        <v>323</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>250</v>
+        <v>328</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>330</v>
       </c>
       <c r="L30" s="20" t="s">
         <v>249</v>
@@ -6387,56 +6494,43 @@
     </row>
     <row r="31" spans="2:12">
       <c r="E31" s="21" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>240</v>
+        <v>310</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>327</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="43.5">
-      <c r="B32" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>260</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="2:12">
       <c r="E32" s="21" t="s">
         <v>234</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="24" t="s">
         <v>236</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>237</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>245</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="L32" s="20"/>
     </row>
     <row r="33" spans="2:12">
       <c r="E33" s="21" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>241</v>
@@ -6448,509 +6542,532 @@
         <v>242</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="40.5">
+        <v>251</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="43.5">
       <c r="B34" s="21" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>234</v>
+        <v>315</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>236</v>
+        <v>316</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="J34" s="25"/>
+        <v>315</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>319</v>
+      </c>
       <c r="L34" s="20" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="E35" s="21" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>254</v>
+        <v>235</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>236</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="2:12">
       <c r="E36" s="21" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>258</v>
+        <v>241</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="30">
-      <c r="E37" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>270</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="G37" s="27"/>
+      <c r="J37" s="25"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="E38" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="L38" s="25" t="s">
-        <v>273</v>
-      </c>
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="2:12" ht="43.5">
+      <c r="E39" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="E40" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="E41" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="L42" s="20"/>
     </row>
     <row r="43" spans="2:12" ht="46.5">
       <c r="B43" s="21" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>285</v>
+        <v>257</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>258</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="J43" s="28" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="L43" s="20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="2:12">
       <c r="E44" s="21" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="L44" s="20"/>
+        <v>253</v>
+      </c>
+      <c r="J44" s="25"/>
     </row>
     <row r="45" spans="2:12">
       <c r="E45" s="21" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="L45" s="20"/>
-    </row>
-    <row r="47" spans="2:12" ht="46.5">
-      <c r="B47" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>228</v>
-      </c>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="43.5">
       <c r="E47" s="21" t="s">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>205</v>
+        <v>310</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>311</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="J47" s="20" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="L47" s="20" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="E48" s="21" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="46.5">
-      <c r="B50" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="L50" s="20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="E51" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="L51" s="20"/>
+        <v>270</v>
+      </c>
+      <c r="L48" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="E49" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="53" spans="2:12" ht="46.5">
       <c r="B53" s="21" t="s">
-        <v>226</v>
+        <v>297</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="G53" s="21" t="s">
-        <v>203</v>
+        <v>282</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>283</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>216</v>
+        <v>288</v>
+      </c>
+      <c r="J53" s="28" t="s">
+        <v>293</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="2:12">
       <c r="E54" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="E55" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="57" spans="2:12" ht="46.5">
+      <c r="B57" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J57" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="L57" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="E58" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="46.5">
+      <c r="B60" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="L60" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="E61" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="I61" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="L61" s="20"/>
+    </row>
+    <row r="63" spans="2:12" ht="46.5">
+      <c r="B63" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="I63" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="J63" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="L63" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="E64" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G64" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="H54" s="21" t="s">
+      <c r="H64" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="I54" s="21" t="s">
+      <c r="I64" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="L54" s="20"/>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="L55" s="20"/>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="L56" s="20"/>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="L57" s="20"/>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="L58" s="20"/>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="L59" s="20"/>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="F61" s="21" t="s">
+      <c r="L64" s="20"/>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="L65" s="20"/>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="L66" s="20"/>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="L67" s="20"/>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="L68" s="20"/>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="L69" s="20"/>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="F71" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H71" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="K61" s="21" t="s">
+      <c r="K71" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="L61" s="21" t="s">
+      <c r="L71" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="2:12">
-      <c r="B62" s="21" t="s">
+    <row r="72" spans="2:12">
+      <c r="B72" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C72" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D72" s="21" t="s">
         <v>175</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="K62" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12">
-      <c r="E63" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12">
-      <c r="C64" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="K64" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="L64" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12">
-      <c r="E65" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H65" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="L65" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="3:12">
-      <c r="C66" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="K66" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="3:12">
-      <c r="E67" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H67" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="L67" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="3:12">
-      <c r="L68" s="21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="3:12">
-      <c r="C70" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="K70" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="L70" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="3:12">
-      <c r="E71" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H71" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="L71" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="72" spans="3:12">
-      <c r="C72" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>176</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>177</v>
@@ -6959,164 +7076,311 @@
         <v>162</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K72" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="3:12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
       <c r="E73" s="21" t="s">
         <v>172</v>
       </c>
       <c r="H73" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="C74" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K74" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L74" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="E75" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L75" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="C76" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K76" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="E77" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L77" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="L78" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="C80" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K80" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L80" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12">
+      <c r="E81" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L81" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12">
+      <c r="C82" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12">
+      <c r="E83" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H83" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="3:12">
-      <c r="C75" s="21" t="s">
+    <row r="85" spans="3:12">
+      <c r="C85" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="3:12">
-      <c r="C76" s="21" t="s">
+    <row r="86" spans="3:12">
+      <c r="C86" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="3:10">
-      <c r="C84" s="22" t="s">
+    <row r="94" spans="3:12">
+      <c r="C94" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D94" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E84" s="24" t="s">
+      <c r="E94" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="3:10">
-      <c r="C85" s="22" t="s">
+    <row r="95" spans="3:12">
+      <c r="C95" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D95" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E95" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="3:10">
-      <c r="C86" s="22" t="s">
+    <row r="96" spans="3:12">
+      <c r="C96" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="D96" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E86" s="24" t="s">
+      <c r="E96" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="3:10">
-      <c r="E88" s="21" t="s">
+    <row r="98" spans="4:10">
+      <c r="E98" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="3:10">
-      <c r="E89" s="21" t="s">
+    <row r="99" spans="4:10">
+      <c r="E99" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="3:10">
-      <c r="E90" s="21" t="s">
+    <row r="100" spans="4:10">
+      <c r="E100" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="3:10" ht="44.25" customHeight="1">
-      <c r="D92" s="29" t="s">
+    <row r="102" spans="4:10" ht="44.25" customHeight="1">
+      <c r="D102" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E102" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="30"/>
-    </row>
-    <row r="93" spans="3:10" ht="21" customHeight="1">
-      <c r="D93" s="29"/>
-      <c r="E93" s="31" t="s">
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="30"/>
+    </row>
+    <row r="103" spans="4:10" ht="21" customHeight="1">
+      <c r="D103" s="29"/>
+      <c r="E103" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31"/>
-    </row>
-    <row r="94" spans="3:10" ht="19.5" customHeight="1">
-      <c r="D94" s="29" t="s">
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="31"/>
+    </row>
+    <row r="104" spans="4:10" ht="19.5" customHeight="1">
+      <c r="D104" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="E104" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32"/>
-    </row>
-    <row r="95" spans="3:10" ht="19.5" customHeight="1">
-      <c r="D95" s="29"/>
-      <c r="E95" s="31" t="s">
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+    </row>
+    <row r="105" spans="4:10" ht="19.5" customHeight="1">
+      <c r="D105" s="29"/>
+      <c r="E105" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="31"/>
-    </row>
-    <row r="96" spans="3:10" ht="147" customHeight="1">
-      <c r="D96" s="29" t="s">
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="31"/>
+    </row>
+    <row r="106" spans="4:10" ht="147" customHeight="1">
+      <c r="D106" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E96" s="30" t="s">
+      <c r="E106" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
-    </row>
-    <row r="97" spans="4:10" ht="58.5" customHeight="1">
-      <c r="D97" s="29"/>
-      <c r="E97" s="31" t="s">
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+    </row>
+    <row r="107" spans="4:10" ht="58.5" customHeight="1">
+      <c r="D107" s="29"/>
+      <c r="E107" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="31"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E92:J92"/>
-    <mergeCell ref="E93:J93"/>
-    <mergeCell ref="E94:J94"/>
-    <mergeCell ref="E95:J95"/>
-    <mergeCell ref="E96:J96"/>
-    <mergeCell ref="E97:J97"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E102:J102"/>
+    <mergeCell ref="E103:J103"/>
+    <mergeCell ref="E104:J104"/>
+    <mergeCell ref="E105:J105"/>
+    <mergeCell ref="E106:J106"/>
+    <mergeCell ref="E107:J107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F46D191-2728-4000-A27F-0FEF8B069EC3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3096C8-D959-4CBA-8EBC-580AAB3C35AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243BDFE3-9D3B-4D05-B2A4-D1D6EBBA4F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26280" yWindow="2640" windowWidth="21600" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25260" yWindow="3420" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="347">
   <si>
     <t>will</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2003,6 +2003,92 @@
   </si>
   <si>
     <t>she, me, swim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We eat to live.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   &lt;     &gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부사구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to 부정사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>live</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advcl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6021,13 +6107,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:M107"/>
+  <dimension ref="B2:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6101,6 +6187,9 @@
       <c r="H3" s="21" t="s">
         <v>143</v>
       </c>
+      <c r="I3" s="21" t="s">
+        <v>345</v>
+      </c>
       <c r="L3" s="20" t="s">
         <v>298</v>
       </c>
@@ -6112,8 +6201,14 @@
       <c r="E4" s="21" t="s">
         <v>113</v>
       </c>
+      <c r="F4" s="21" t="s">
+        <v>341</v>
+      </c>
       <c r="G4" s="26" t="s">
         <v>114</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>346</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>138</v>
@@ -6272,6 +6367,9 @@
       </c>
       <c r="H18" s="21" t="s">
         <v>149</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>331</v>
       </c>
       <c r="L18" s="20" t="s">
         <v>145</v>
@@ -6810,559 +6908,618 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="46.5">
-      <c r="B53" s="21" t="s">
+    <row r="51" spans="2:12" ht="30">
+      <c r="B51" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="L51" s="20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="E52" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="L56" s="20"/>
+    </row>
+    <row r="58" spans="2:12" ht="46.5">
+      <c r="B58" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C58" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D58" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E58" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F58" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G58" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H58" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="I58" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="J53" s="28" t="s">
+      <c r="J58" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="L53" s="20" t="s">
+      <c r="L58" s="20" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="54" spans="2:12">
-      <c r="E54" s="21" t="s">
+    <row r="59" spans="2:12">
+      <c r="E59" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F59" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G59" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="H54" s="21" t="s">
+      <c r="H59" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="I54" s="21" t="s">
+      <c r="I59" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="L54" s="20"/>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="E55" s="21" t="s">
+      <c r="L59" s="20"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="E60" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F60" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="G55" s="27" t="s">
+      <c r="G60" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="H55" s="21" t="s">
+      <c r="H60" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="I55" s="21" t="s">
+      <c r="I60" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="J55" s="25" t="s">
+      <c r="J60" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="L55" s="20"/>
-    </row>
-    <row r="57" spans="2:12" ht="46.5">
-      <c r="B57" s="21" t="s">
+      <c r="L60" s="20"/>
+    </row>
+    <row r="62" spans="2:12" ht="46.5">
+      <c r="B62" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C62" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D62" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E62" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F62" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G57" s="27" t="s">
+      <c r="G62" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="H57" s="21" t="s">
+      <c r="H62" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="I62" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="J57" s="20" t="s">
+      <c r="J62" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="L57" s="20" t="s">
+      <c r="L62" s="20" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="2:12">
-      <c r="E58" s="21" t="s">
+    <row r="63" spans="2:12">
+      <c r="E63" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F63" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="G63" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="H58" s="21" t="s">
+      <c r="H63" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I63" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="46.5">
-      <c r="B60" s="21" t="s">
+    <row r="65" spans="2:12" ht="46.5">
+      <c r="B65" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C65" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D65" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E65" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F65" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="G60" s="21" t="s">
+      <c r="G65" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="H65" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="I60" s="21" t="s">
+      <c r="I65" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="J60" s="21" t="s">
+      <c r="J65" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="L60" s="20" t="s">
+      <c r="L65" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="2:12">
-      <c r="E61" s="21" t="s">
+    <row r="66" spans="2:12">
+      <c r="E66" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F66" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G61" s="27" t="s">
+      <c r="G66" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H66" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="I61" s="21" t="s">
+      <c r="I66" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="L61" s="20"/>
-    </row>
-    <row r="63" spans="2:12" ht="46.5">
-      <c r="B63" s="21" t="s">
+      <c r="L66" s="20"/>
+    </row>
+    <row r="68" spans="2:12" ht="46.5">
+      <c r="B68" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C68" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D68" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E68" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F68" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="G68" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="H63" s="21" t="s">
+      <c r="H68" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="I63" s="21" t="s">
+      <c r="I68" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="J63" s="20" t="s">
+      <c r="J68" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="L63" s="20" t="s">
+      <c r="L68" s="20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="2:12">
-      <c r="E64" s="21" t="s">
+    <row r="69" spans="2:12">
+      <c r="E69" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F69" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="G69" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="H64" s="21" t="s">
+      <c r="H69" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="I64" s="21" t="s">
+      <c r="I69" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="L64" s="20"/>
-    </row>
-    <row r="65" spans="2:12">
-      <c r="L65" s="20"/>
-    </row>
-    <row r="66" spans="2:12">
-      <c r="L66" s="20"/>
-    </row>
-    <row r="67" spans="2:12">
-      <c r="L67" s="20"/>
-    </row>
-    <row r="68" spans="2:12">
-      <c r="L68" s="20"/>
-    </row>
-    <row r="69" spans="2:12">
       <c r="L69" s="20"/>
     </row>
+    <row r="70" spans="2:12">
+      <c r="L70" s="20"/>
+    </row>
     <row r="71" spans="2:12">
-      <c r="F71" s="21" t="s">
+      <c r="L71" s="20"/>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="L72" s="20"/>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="L73" s="20"/>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="L74" s="20"/>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="F76" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="H71" s="21" t="s">
+      <c r="H76" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="K71" s="21" t="s">
+      <c r="K76" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="L71" s="21" t="s">
+      <c r="L76" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="2:12">
-      <c r="B72" s="21" t="s">
+    <row r="77" spans="2:12">
+      <c r="B77" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C77" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D77" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E77" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F72" s="21" t="s">
+      <c r="F77" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H72" s="21" t="s">
+      <c r="H77" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="K72" s="21" t="s">
+      <c r="K77" s="21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="2:12">
-      <c r="E73" s="21" t="s">
+    <row r="78" spans="2:12">
+      <c r="E78" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="H73" s="21" t="s">
+      <c r="H78" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="2:12">
-      <c r="C74" s="21" t="s">
+    <row r="79" spans="2:12">
+      <c r="C79" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D79" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E79" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F79" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H74" s="21" t="s">
+      <c r="H79" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="K74" s="21" t="s">
+      <c r="K79" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="L74" s="21" t="s">
+      <c r="L79" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="2:12">
-      <c r="E75" s="21" t="s">
+    <row r="80" spans="2:12">
+      <c r="E80" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="H75" s="21" t="s">
+      <c r="H80" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="L75" s="21" t="s">
+      <c r="L80" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="2:12">
-      <c r="C76" s="21" t="s">
+    <row r="81" spans="3:12">
+      <c r="C81" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D81" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="E81" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F81" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="H76" s="21" t="s">
+      <c r="H81" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="K76" s="21" t="s">
+      <c r="K81" s="21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="2:12">
-      <c r="E77" s="21" t="s">
+    <row r="82" spans="3:12">
+      <c r="E82" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="H77" s="21" t="s">
+      <c r="H82" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="L77" s="21" t="s">
+      <c r="L82" s="21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="2:12">
-      <c r="L78" s="21" t="s">
+    <row r="83" spans="3:12">
+      <c r="L83" s="21" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12">
-      <c r="C80" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H80" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="K80" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="L80" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12">
-      <c r="E81" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H81" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="L81" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12">
-      <c r="C82" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H82" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="K82" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="3:12">
-      <c r="E83" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H83" s="21" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="85" spans="3:12">
       <c r="C85" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H85" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K85" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L85" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12">
+      <c r="E86" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L86" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12">
+      <c r="C87" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H87" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K87" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12">
+      <c r="E88" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12">
+      <c r="C90" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="3:12">
-      <c r="C86" s="21" t="s">
+    <row r="91" spans="3:12">
+      <c r="C91" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="3:12">
-      <c r="C94" s="22" t="s">
+    <row r="99" spans="3:10">
+      <c r="C99" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D94" s="23" t="s">
+      <c r="D99" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E94" s="24" t="s">
+      <c r="E99" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="3:12">
-      <c r="C95" s="22" t="s">
+    <row r="100" spans="3:10">
+      <c r="C100" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="D100" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E95" s="24" t="s">
+      <c r="E100" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="3:12">
-      <c r="C96" s="22" t="s">
+    <row r="101" spans="3:10">
+      <c r="C101" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D96" s="23" t="s">
+      <c r="D101" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E96" s="24" t="s">
+      <c r="E101" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="4:10">
-      <c r="E98" s="21" t="s">
+    <row r="103" spans="3:10">
+      <c r="E103" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="4:10">
-      <c r="E99" s="21" t="s">
+    <row r="104" spans="3:10">
+      <c r="E104" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="4:10">
-      <c r="E100" s="21" t="s">
+    <row r="105" spans="3:10">
+      <c r="E105" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="4:10" ht="44.25" customHeight="1">
-      <c r="D102" s="29" t="s">
+    <row r="107" spans="3:10" ht="44.25" customHeight="1">
+      <c r="D107" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="E102" s="30" t="s">
+      <c r="E107" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30"/>
-      <c r="I102" s="30"/>
-      <c r="J102" s="30"/>
-    </row>
-    <row r="103" spans="4:10" ht="21" customHeight="1">
-      <c r="D103" s="29"/>
-      <c r="E103" s="31" t="s">
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+    </row>
+    <row r="108" spans="3:10" ht="21" customHeight="1">
+      <c r="D108" s="29"/>
+      <c r="E108" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="31"/>
-    </row>
-    <row r="104" spans="4:10" ht="19.5" customHeight="1">
-      <c r="D104" s="29" t="s">
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="31"/>
+    </row>
+    <row r="109" spans="3:10" ht="19.5" customHeight="1">
+      <c r="D109" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E109" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
-    </row>
-    <row r="105" spans="4:10" ht="19.5" customHeight="1">
-      <c r="D105" s="29"/>
-      <c r="E105" s="31" t="s">
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="32"/>
+    </row>
+    <row r="110" spans="3:10" ht="19.5" customHeight="1">
+      <c r="D110" s="29"/>
+      <c r="E110" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="31"/>
-    </row>
-    <row r="106" spans="4:10" ht="147" customHeight="1">
-      <c r="D106" s="29" t="s">
+      <c r="F110" s="31"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="31"/>
+    </row>
+    <row r="111" spans="3:10" ht="147" customHeight="1">
+      <c r="D111" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="E111" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="30"/>
-    </row>
-    <row r="107" spans="4:10" ht="58.5" customHeight="1">
-      <c r="D107" s="29"/>
-      <c r="E107" s="31" t="s">
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
+    </row>
+    <row r="112" spans="3:10" ht="58.5" customHeight="1">
+      <c r="D112" s="29"/>
+      <c r="E112" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E102:J102"/>
-    <mergeCell ref="E103:J103"/>
-    <mergeCell ref="E104:J104"/>
-    <mergeCell ref="E105:J105"/>
-    <mergeCell ref="E106:J106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D111:D112"/>
     <mergeCell ref="E107:J107"/>
+    <mergeCell ref="E108:J108"/>
+    <mergeCell ref="E109:J109"/>
+    <mergeCell ref="E110:J110"/>
+    <mergeCell ref="E111:J111"/>
+    <mergeCell ref="E112:J112"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/동사덩어리 태깅 종합.xlsx
+++ b/동사덩어리 태깅 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243BDFE3-9D3B-4D05-B2A4-D1D6EBBA4F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C7235-BA59-4F3D-ABC4-193C308E4949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25260" yWindow="3420" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25065" yWindow="3150" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="350">
   <si>
     <t>will</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2089,6 +2089,18 @@
   </si>
   <si>
     <t>VBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>was</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6110,10 +6122,10 @@
   <dimension ref="B2:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L54" sqref="L54"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6243,6 +6255,9 @@
       <c r="H6" s="21" t="s">
         <v>143</v>
       </c>
+      <c r="I6" s="21" t="s">
+        <v>347</v>
+      </c>
       <c r="L6" s="20" t="s">
         <v>299</v>
       </c>
@@ -6287,6 +6302,9 @@
       <c r="H9" s="21" t="s">
         <v>166</v>
       </c>
+      <c r="I9" s="21" t="s">
+        <v>348</v>
+      </c>
       <c r="J9" s="25"/>
       <c r="L9" s="20" t="s">
         <v>300</v>
@@ -6327,6 +6345,9 @@
       </c>
       <c r="H13" s="21" t="s">
         <v>166</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>349</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>187</v>
